--- a/organizations.xlsx
+++ b/organizations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luzhang/Documents/GitHub/MACS-SNA-final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F717E4-88B8-DB46-82A2-962727BBB64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D891A385-E573-1745-828B-07BD4A49BD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16420" xr2:uid="{60063673-9F0B-0047-9A72-8ECED67E660E}"/>
+    <workbookView xWindow="9980" yWindow="760" windowWidth="14400" windowHeight="16420" xr2:uid="{60063673-9F0B-0047-9A72-8ECED67E660E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>https://www.facebook.com/unwomen</t>
   </si>
   <si>
-    <t>AWID</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/AWIDWomensRights</t>
   </si>
   <si>
@@ -180,10 +177,124 @@
     <t>https://www.facebook.com/FeministMajorityFoundation/</t>
   </si>
   <si>
-    <t>SayNO - UNiTE to End Violence Against Women</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SayNO.UNiTE/</t>
+    <t>Care International</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/carefans</t>
+  </si>
+  <si>
+    <t>Women's Environment and Development Organization</t>
+  </si>
+  <si>
+    <t>Girls Not Brides</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GirlsNotBrides</t>
+  </si>
+  <si>
+    <t>LeanIn.Org</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/leanincommunity</t>
+  </si>
+  <si>
+    <t>She's the First</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/shesthefirst</t>
+  </si>
+  <si>
+    <t>Malala Fund</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MalalaFund</t>
+  </si>
+  <si>
+    <t>Women Deliver</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/womendeliver</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AAUW.National</t>
+  </si>
+  <si>
+    <t>American Association of University Women</t>
+  </si>
+  <si>
+    <t>Association for Women's Rights in Development</t>
+  </si>
+  <si>
+    <t>Center for Women's Global Leadership</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CenterforWomensGlobalLeadership</t>
+  </si>
+  <si>
+    <t>Equal Rights Advocates</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/EqualRightsAdvocates</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TheWomensCoalition/</t>
+  </si>
+  <si>
+    <t>The Women's Coalition</t>
+  </si>
+  <si>
+    <t>Zonta International</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ZontaInternational</t>
+  </si>
+  <si>
+    <t>Girls for Gender Equity</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/girlsforgenderequity</t>
+  </si>
+  <si>
+    <t>Girls, Inc.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GirlsInc</t>
+  </si>
+  <si>
+    <t>Institute for Women's Policy Research</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iwpresearch</t>
+  </si>
+  <si>
+    <t>Asia-Japan Women's Resource Center</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/WRCDV</t>
+  </si>
+  <si>
+    <t>United Nations Commission on the Status of Women</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/UNCSW</t>
+  </si>
+  <si>
+    <t>Catalyst Inc.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/catalystinc</t>
+  </si>
+  <si>
+    <t>Zambia Alliance of Women</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ZambiaAllianceofWomen</t>
+  </si>
+  <si>
+    <t>Dress for Success</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DressForSuccess</t>
   </si>
 </sst>
 </file>
@@ -536,16 +647,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128B8F5E-4BBA-A940-BF98-8300F51763F3}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -553,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -574,178 +685,330 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
